--- a/normativa/Anexos/L05T02C03/L05T02C03A04.28.xlsx
+++ b/normativa/Anexos/L05T02C03/L05T02C03A04.28.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="HOJA 2" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Contador General</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>ANEXO 4.28:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -459,17 +462,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="39" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="17" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="17" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="39" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="17" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="17" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="18" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -497,7 +500,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -783,32 +786,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF50"/>
+  <dimension ref="A1:AF55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.88671875" style="1" customWidth="1"/>
     <col min="17" max="17" width="7" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="3.7109375" style="1"/>
+    <col min="18" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -841,7 +844,7 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>27</v>
       </c>
@@ -877,7 +880,7 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
     </row>
-    <row r="3" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="F3" s="10" t="s">
@@ -1063,7 +1066,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
     </row>
-    <row r="9" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
@@ -1095,7 +1098,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
     </row>
-    <row r="10" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>22</v>
       </c>
@@ -1108,13 +1111,13 @@
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="43"/>
-      <c r="K10" s="46" t="s">
+      <c r="K10" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="47"/>
       <c r="P10" s="25"/>
       <c r="Q10" s="26"/>
       <c r="R10" s="19"/>
@@ -1129,7 +1132,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>23</v>
       </c>
@@ -1183,7 +1186,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
     </row>
-    <row r="12" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
@@ -1791,7 +1794,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
         <v>6</v>
       </c>
@@ -1881,16 +1884,16 @@
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="H35" s="45" t="s">
+      <c r="H35" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
       <c r="K35" s="30"/>
-      <c r="L35" s="45" t="s">
+      <c r="L35" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="M35" s="45"/>
+      <c r="M35" s="48"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
@@ -2046,7 +2049,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
     </row>
-    <row r="42" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -2060,7 +2063,7 @@
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
     </row>
-    <row r="43" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -2074,7 +2077,7 @@
       <c r="K43" s="16"/>
       <c r="L43" s="16"/>
     </row>
-    <row r="44" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -2088,7 +2091,7 @@
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
     </row>
-    <row r="45" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -2102,7 +2105,7 @@
       <c r="K45" s="16"/>
       <c r="L45" s="16"/>
     </row>
-    <row r="46" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -2116,7 +2119,7 @@
       <c r="K46" s="16"/>
       <c r="L46" s="16"/>
     </row>
-    <row r="47" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -2130,7 +2133,7 @@
       <c r="K47" s="16"/>
       <c r="L47" s="16"/>
     </row>
-    <row r="48" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -2144,7 +2147,7 @@
       <c r="K48" s="16"/>
       <c r="L48" s="16"/>
     </row>
-    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -2167,6 +2170,11 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
+    </row>
+    <row r="55" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2193,7 +2201,7 @@
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
-RECOPILACIÓN DE NORMAS PARA BANCOS Y ENTIDADES FINANCIERAS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
+RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
 Título II
 Capítulo III
@@ -2209,7 +2217,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
